--- a/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_15000_1.xlsx
+++ b/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_15000_1.xlsx
@@ -726,7 +726,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -758,7 +758,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -774,7 +774,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -806,7 +806,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -822,7 +822,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -870,7 +870,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -886,7 +886,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1'}</t>
+          <t>{'Student': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -934,7 +934,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -950,7 +950,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -966,7 +966,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -982,7 +982,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'GINI': '2'}</t>
+          <t>{'GINI': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -998,7 +998,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'FormalEducation': '1'}</t>
+          <t>{'FormalEducation': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1014,7 +1014,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1030,7 +1030,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1110,7 +1110,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1142,7 +1142,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1158,7 +1158,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Age': '3'}</t>
+          <t>{'Age': '3', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1174,7 +1174,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1190,7 +1190,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'GINI': '2'}</t>
+          <t>{'GINI': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1238,7 +1238,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1254,7 +1254,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'GDP': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'GDP': '1'}</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1270,7 +1270,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1286,7 +1286,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1302,7 +1302,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Student': '1', 'Hobby': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1318,7 +1318,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1334,7 +1334,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1350,7 +1350,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'UndergradMajor': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1366,7 +1366,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1382,7 +1382,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1398,7 +1398,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1414,7 +1414,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1430,7 +1430,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1462,7 +1462,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1478,7 +1478,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1494,7 +1494,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'Student': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1526,7 +1526,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1542,7 +1542,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1558,7 +1558,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Student': '1', 'Dependents': '2'}</t>
+          <t>{'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1574,7 +1574,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1590,7 +1590,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1606,7 +1606,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
+          <t>{'UndergradMajor': '2', 'RaceEthnicity': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1622,7 +1622,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
+          <t>{'UndergradMajor': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1654,7 +1654,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1670,7 +1670,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'SexualOrientation': '1', 'Dependents': '2'}</t>
+          <t>{'RaceEthnicity': '1', 'Dependents': '2', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1686,7 +1686,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1702,7 +1702,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1718,7 +1718,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Dependents': '2'}</t>
+          <t>{'RaceEthnicity': '1', 'Dependents': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1734,7 +1734,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1750,7 +1750,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1766,7 +1766,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1782,7 +1782,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Student': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1798,7 +1798,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1814,7 +1814,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1830,7 +1830,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'RaceEthnicity': '1', 'SexualOrientation': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'Hobby': '1', 'SexualOrientation': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B83" t="n">

--- a/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_15000_1.xlsx
+++ b/algorithms_results/Yardens_results/Apriori_subgroups_results_delta_15000_1.xlsx
@@ -774,7 +774,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -790,7 +790,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -806,7 +806,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1'}</t>
+          <t>{'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -886,7 +886,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'DevType': '2'}</t>
+          <t>{'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -902,7 +902,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -998,7 +998,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'FormalEducation': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'FormalEducation': '1'}</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1014,7 +1014,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2'}</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1078,7 +1078,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>{'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1094,7 +1094,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'DevType': '2'}</t>
+          <t>{'DevType': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1126,7 +1126,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1142,7 +1142,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1158,7 +1158,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'Age': '3', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Age': '3'}</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1174,7 +1174,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1190,7 +1190,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'GINI': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'GINI': '2'}</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1206,7 +1206,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Dependents': '2'}</t>
+          <t>{'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1222,7 +1222,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1238,7 +1238,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1254,7 +1254,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'GDP': '1'}</t>
+          <t>{'GDP': '1', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1270,7 +1270,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'DevType': '2'}</t>
+          <t>{'Hobby': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1286,7 +1286,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1302,7 +1302,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1318,7 +1318,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1'}</t>
+          <t>{'Student': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1334,7 +1334,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1350,7 +1350,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1366,7 +1366,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1382,7 +1382,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1398,7 +1398,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1414,7 +1414,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1430,7 +1430,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
+          <t>{'Hobby': '1', 'RaceEthnicity': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1446,7 +1446,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1462,7 +1462,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1478,7 +1478,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1494,7 +1494,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'Student': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'DevType': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1510,7 +1510,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1526,7 +1526,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1542,7 +1542,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1558,7 +1558,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Dependents': '2', 'Student': '1'}</t>
+          <t>{'Dependents': '2', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1574,7 +1574,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1590,7 +1590,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Dependents': '2', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1606,7 +1606,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'RaceEthnicity': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1622,7 +1622,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'UndergradMajor': '2', 'HDI': '1'}</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1638,7 +1638,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'DevType': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1654,7 +1654,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>{'HDI': '1', 'DevType': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'DevType': '2'}</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1670,7 +1670,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Dependents': '2', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1686,7 +1686,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1702,7 +1702,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'HDI': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1718,7 +1718,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Dependents': '2', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Dependents': '2', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1734,7 +1734,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1750,7 +1750,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>{'Dependents': '2', 'Hobby': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'Hobby': '1', 'Student': '1', 'Dependents': '2'}</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1766,7 +1766,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'Student': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Hobby': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1782,7 +1782,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'Student': '1', 'HDI': '1'}</t>
+          <t>{'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1798,7 +1798,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'Hobby': '1', 'SexualOrientation': '1', 'HDI': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'Hobby': '1', 'RaceEthnicity': '1'}</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1814,7 +1814,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': '1', 'HDI': '1', 'Student': '1', 'SexualOrientation': '1'}</t>
+          <t>{'SexualOrientation': '1', 'HDI': '1', 'RaceEthnicity': '1', 'Student': '1'}</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1830,7 +1830,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>{'Hobby': '1', 'SexualOrientation': '1', 'RaceEthnicity': '1', 'HDI': '1', 'Student': '1'}</t>
+          <t>{'HDI': '1', 'RaceEthnicity': '1', 'Student': '1', 'SexualOrientation': '1', 'Hobby': '1'}</t>
         </is>
       </c>
       <c r="B83" t="n">
